--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D87E74-6FB9-4BCF-824E-E104662CEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="810" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -281,13 +277,13 @@
     <t>52 Sturt Street</t>
   </si>
   <si>
-    <t>rimurutenpestforall@gmail.com</t>
+    <t>rimurutempestforall@gmail.com</t>
   </si>
   <si>
     <t>green space</t>
   </si>
   <si>
-    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you haha.</t>
+    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you, haha.</t>
   </si>
   <si>
     <t>Westering North Adelaide is a great place to live in. I hope to move in as soon as possible.</t>
@@ -296,21 +292,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,14 +662,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -977,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1127,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP2">
         <v>2</v>
       </c>
       <c r="BQ2">
+        <v>3</v>
+      </c>
+      <c r="BR2">
         <v>4</v>
-      </c>
-      <c r="BR2">
-        <v>5</v>
       </c>
       <c r="BS2">
         <v>5</v>
@@ -1185,8 +1169,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Last Name/s</t>
   </si>
@@ -250,6 +250,351 @@
     <t>Reverse-cycle air-conditioned zones</t>
   </si>
   <si>
+    <t>Floorboards: Bedrooms</t>
+  </si>
+  <si>
+    <t>Floorboards: Ketchen</t>
+  </si>
+  <si>
+    <t>Floorboards: Living/dining</t>
+  </si>
+  <si>
+    <t>Carpet: Bedrooms</t>
+  </si>
+  <si>
+    <t>Carpet: Living/dining</t>
+  </si>
+  <si>
+    <t>Tiles: Bathroom</t>
+  </si>
+  <si>
+    <t>Tiles: Bedrooms</t>
+  </si>
+  <si>
+    <t>Tiles: Kitchen</t>
+  </si>
+  <si>
+    <t>Tiles: Living/dining</t>
+  </si>
+  <si>
+    <t>Designed for ageing in place</t>
+  </si>
+  <si>
+    <t>Level access/no threshold</t>
+  </si>
+  <si>
+    <t>Light filled home</t>
+  </si>
+  <si>
+    <t>Reverse cycle air conditioning</t>
+  </si>
+  <si>
+    <t>Ceiling fan</t>
+  </si>
+  <si>
+    <t>Electric automated blinds</t>
+  </si>
+  <si>
+    <t>European kitchen appliances</t>
+  </si>
+  <si>
+    <t>Built-in robes</t>
+  </si>
+  <si>
+    <t>Walk-in robe</t>
+  </si>
+  <si>
+    <t>Sliding robe doors</t>
+  </si>
+  <si>
+    <t>No robe doors</t>
+  </si>
+  <si>
+    <t>Linen cupboard</t>
+  </si>
+  <si>
+    <t>Open-plan living area</t>
+  </si>
+  <si>
+    <t>Built-in coffee machine</t>
+  </si>
+  <si>
+    <t>Built-in microwave oven</t>
+  </si>
+  <si>
+    <t>Pantry storage</t>
+  </si>
+  <si>
+    <t>Steam oven</t>
+  </si>
+  <si>
+    <t>Warming drawer</t>
+  </si>
+  <si>
+    <t>Dishwasher - full size</t>
+  </si>
+  <si>
+    <t>Dishwasher - drawer (half size)</t>
+  </si>
+  <si>
+    <t>Filtered water</t>
+  </si>
+  <si>
+    <t>Zip Tap (boiling/sparkling water)</t>
+  </si>
+  <si>
+    <t>Wine fridge</t>
+  </si>
+  <si>
+    <t>Butler's pantry</t>
+  </si>
+  <si>
+    <t>Shower with flexible hose</t>
+  </si>
+  <si>
+    <t>European laundry</t>
+  </si>
+  <si>
+    <t>Laundry in bathroom</t>
+  </si>
+  <si>
+    <t>Combined washer/dryer</t>
+  </si>
+  <si>
+    <t>Laundry trough</t>
+  </si>
+  <si>
+    <t>Ironing board storage</t>
+  </si>
+  <si>
+    <t>Raised laundry appliances</t>
+  </si>
+  <si>
+    <t>Bath tub</t>
+  </si>
+  <si>
+    <t>Smart home features</t>
+  </si>
+  <si>
+    <t>Small safe in discreet area</t>
+  </si>
+  <si>
+    <t>Keyless entry (e.g., fob)</t>
+  </si>
+  <si>
+    <t>Intercom for visitors - audio only</t>
+  </si>
+  <si>
+    <t>Intercom for visitors - visual &amp; audio</t>
+  </si>
+  <si>
+    <t>Underfloor bathroom heating</t>
+  </si>
+  <si>
+    <t>Heated towel rails</t>
+  </si>
+  <si>
+    <t>Other (please list) interiors</t>
+  </si>
+  <si>
+    <t>24/7 Emergency Call System</t>
+  </si>
+  <si>
+    <t>Emergency call buttons installed</t>
+  </si>
+  <si>
+    <t>Emergency call pendant</t>
+  </si>
+  <si>
+    <t>Secure garage access</t>
+  </si>
+  <si>
+    <t>Walking distance to shops</t>
+  </si>
+  <si>
+    <t>Walking distance to park</t>
+  </si>
+  <si>
+    <t>Views/aspects</t>
+  </si>
+  <si>
+    <t>Easy access to public transport (bus)</t>
+  </si>
+  <si>
+    <t>Being part of a like-minded community</t>
+  </si>
+  <si>
+    <t>Co-located to aged care</t>
+  </si>
+  <si>
+    <t>Gardens maintained by Helping Hand</t>
+  </si>
+  <si>
+    <t>Building maintained by Helping Hand</t>
+  </si>
+  <si>
+    <t>No AirBnB/vacation rental neighbours</t>
+  </si>
+  <si>
+    <t>Playground equipment (for young and old)</t>
+  </si>
+  <si>
+    <t>Secure access to buildings</t>
+  </si>
+  <si>
+    <t>Security patrols</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Herb or vegetable garden</t>
+  </si>
+  <si>
+    <t>Barbeque areas</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>Wellness/Exercise classes (e.g. yoga, aquarobics, meditation)</t>
+  </si>
+  <si>
+    <t>Fitness Centre (age appropriate equipment)</t>
+  </si>
+  <si>
+    <t>Communal Hobby Workshop</t>
+  </si>
+  <si>
+    <t>Green Space/Gardens</t>
+  </si>
+  <si>
+    <t>Heated swimming pool</t>
+  </si>
+  <si>
+    <t>Sauna</t>
+  </si>
+  <si>
+    <t>Art and Craft Studio</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Shop/providore</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Residents' Book Club</t>
+  </si>
+  <si>
+    <t>Visiting allied health practitioners</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Car wash bay</t>
+  </si>
+  <si>
+    <t>Secure storage</t>
+  </si>
+  <si>
+    <t>Wine cellar</t>
+  </si>
+  <si>
+    <t>Hairdressing Salon</t>
+  </si>
+  <si>
+    <t>Beauty Salon</t>
+  </si>
+  <si>
+    <t>Coffee machine (residents)</t>
+  </si>
+  <si>
+    <t>Business Centre</t>
+  </si>
+  <si>
+    <t>Darts</t>
+  </si>
+  <si>
+    <t>Billiard table</t>
+  </si>
+  <si>
+    <t>Private dining room (family occasions/entertaining)</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>Pizza Oven</t>
+  </si>
+  <si>
+    <t>Bocce/Pétanque</t>
+  </si>
+  <si>
+    <t>Other amenities/services</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Nursing Services</t>
+  </si>
+  <si>
+    <t>Laundry services</t>
+  </si>
+  <si>
+    <t>General and regular household cleaning</t>
+  </si>
+  <si>
+    <t>Spring cleaning</t>
+  </si>
+  <si>
+    <t>Wellness checks</t>
+  </si>
+  <si>
+    <t>Personal Trainer/Exercise Physiologist</t>
+  </si>
+  <si>
+    <t>Receiving online shopping (groceries)</t>
+  </si>
+  <si>
+    <t>Receiving online shopping (non-perishable)</t>
+  </si>
+  <si>
+    <t>Housekeeping services</t>
+  </si>
+  <si>
+    <t>Lifestyle/social coordinator</t>
+  </si>
+  <si>
+    <t>Meals delivered</t>
+  </si>
+  <si>
+    <t>Personal care</t>
+  </si>
+  <si>
+    <t>Bus transport service</t>
+  </si>
+  <si>
+    <t>Concierge</t>
+  </si>
+  <si>
+    <t>Waste/garbage collection</t>
+  </si>
+  <si>
+    <t>Other extra service (please list)</t>
+  </si>
+  <si>
     <t>Less than 1 year</t>
   </si>
   <si>
@@ -268,22 +613,46 @@
     <t>And finally, please tell us what is most appealing for you about our plans for Westering North Adelaide?</t>
   </si>
   <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>52 Sturt Street</t>
-  </si>
-  <si>
-    <t>rimurutempestforall@gmail.com</t>
-  </si>
-  <si>
-    <t>green space</t>
-  </si>
-  <si>
-    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you, haha.</t>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>2A Lorca Ave, Magill 5072</t>
+  </si>
+  <si>
+    <t>ljlizu.su93@gmail.com</t>
+  </si>
+  <si>
+    <t>0466 351 350</t>
+  </si>
+  <si>
+    <t>Colleagues</t>
+  </si>
+  <si>
+    <t>AFL, Volunteer Magill, Adelaide Seniors Dancing Club</t>
+  </si>
+  <si>
+    <t>cats, dogs</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Sometimes lonely</t>
+  </si>
+  <si>
+    <t>I need lots of things!</t>
+  </si>
+  <si>
+    <t>I may need help during Christmas! I want some gift from children.</t>
+  </si>
+  <si>
+    <t>I want to try new things every day! Nobody can stop me!</t>
+  </si>
+  <si>
+    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you. haha.</t>
   </si>
   <si>
     <t>Westering North Adelaide is a great place to live in. I hope to move in as soon as possible.</t>
@@ -663,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:GR2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,22 +1291,367 @@
       <c r="CG1" t="s">
         <v>84</v>
       </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2">
-        <v>452655703</v>
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -948,17 +1662,20 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -985,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -997,19 +1714,25 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>206</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>207</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1017,41 +1740,44 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2" t="s">
+        <v>208</v>
+      </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -1060,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -1069,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1093,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -1117,16 +1843,16 @@
         <v>2</v>
       </c>
       <c r="BQ2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS2">
         <v>5</v>
       </c>
       <c r="BT2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU2">
         <v>1</v>
@@ -1150,22 +1876,367 @@
         <v>5</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>2</v>
+      </c>
+      <c r="CM2">
+        <v>4</v>
+      </c>
+      <c r="CN2">
+        <v>4</v>
+      </c>
+      <c r="CO2">
+        <v>3</v>
+      </c>
+      <c r="CP2">
+        <v>4</v>
+      </c>
+      <c r="CQ2">
+        <v>4</v>
+      </c>
+      <c r="CR2">
+        <v>5</v>
+      </c>
+      <c r="CS2">
+        <v>5</v>
+      </c>
+      <c r="CT2">
+        <v>5</v>
+      </c>
+      <c r="CU2">
+        <v>5</v>
+      </c>
+      <c r="CV2">
+        <v>4</v>
+      </c>
+      <c r="CW2">
+        <v>5</v>
+      </c>
+      <c r="CX2">
+        <v>3</v>
+      </c>
+      <c r="CY2">
+        <v>2</v>
+      </c>
+      <c r="CZ2">
+        <v>4</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>2</v>
+      </c>
+      <c r="DD2">
+        <v>2</v>
+      </c>
+      <c r="DE2">
+        <v>3</v>
+      </c>
+      <c r="DF2">
+        <v>4</v>
+      </c>
+      <c r="DG2">
+        <v>4</v>
+      </c>
+      <c r="DH2">
+        <v>4</v>
+      </c>
+      <c r="DI2">
+        <v>5</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>4</v>
+      </c>
+      <c r="DN2">
+        <v>4</v>
+      </c>
+      <c r="DO2">
+        <v>5</v>
+      </c>
+      <c r="DP2">
+        <v>2</v>
+      </c>
+      <c r="DQ2">
+        <v>3</v>
+      </c>
+      <c r="DR2">
+        <v>3</v>
+      </c>
+      <c r="DS2">
+        <v>4</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>4</v>
+      </c>
+      <c r="DV2">
+        <v>2</v>
+      </c>
+      <c r="DW2">
+        <v>2</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY2">
+        <v>1</v>
+      </c>
+      <c r="DZ2">
+        <v>1</v>
+      </c>
+      <c r="EA2">
+        <v>1</v>
+      </c>
+      <c r="EB2">
+        <v>2</v>
+      </c>
+      <c r="EC2">
+        <v>2</v>
+      </c>
+      <c r="ED2">
+        <v>3</v>
+      </c>
+      <c r="EE2">
+        <v>3</v>
+      </c>
+      <c r="EF2">
+        <v>3</v>
+      </c>
+      <c r="EG2">
+        <v>4</v>
+      </c>
+      <c r="EH2">
+        <v>4</v>
+      </c>
+      <c r="EI2">
+        <v>5</v>
+      </c>
+      <c r="EJ2">
+        <v>5</v>
+      </c>
+      <c r="EK2">
+        <v>1</v>
+      </c>
+      <c r="EL2">
+        <v>2</v>
+      </c>
+      <c r="EM2">
+        <v>3</v>
+      </c>
+      <c r="EN2">
+        <v>4</v>
+      </c>
+      <c r="EO2">
+        <v>5</v>
+      </c>
+      <c r="EP2">
+        <v>1</v>
+      </c>
+      <c r="EQ2">
+        <v>2</v>
+      </c>
+      <c r="ER2">
+        <v>3</v>
+      </c>
+      <c r="ES2">
+        <v>4</v>
+      </c>
+      <c r="ET2">
+        <v>4</v>
+      </c>
+      <c r="EU2">
+        <v>3</v>
+      </c>
+      <c r="EV2">
+        <v>4</v>
+      </c>
+      <c r="EW2">
+        <v>1</v>
+      </c>
+      <c r="EX2">
+        <v>1</v>
+      </c>
+      <c r="EY2">
+        <v>5</v>
+      </c>
+      <c r="EZ2">
+        <v>5</v>
+      </c>
+      <c r="FA2">
+        <v>4</v>
+      </c>
+      <c r="FB2">
+        <v>5</v>
+      </c>
+      <c r="FC2">
+        <v>4</v>
+      </c>
+      <c r="FD2">
+        <v>2</v>
+      </c>
+      <c r="FE2">
+        <v>3</v>
+      </c>
+      <c r="FF2">
+        <v>5</v>
+      </c>
+      <c r="FG2">
+        <v>1</v>
+      </c>
+      <c r="FH2">
+        <v>1</v>
+      </c>
+      <c r="FI2">
+        <v>3</v>
+      </c>
+      <c r="FJ2">
+        <v>3</v>
+      </c>
+      <c r="FK2">
+        <v>2</v>
+      </c>
+      <c r="FL2">
+        <v>3</v>
+      </c>
+      <c r="FM2">
+        <v>4</v>
+      </c>
+      <c r="FN2">
+        <v>3</v>
+      </c>
+      <c r="FO2">
+        <v>3</v>
+      </c>
+      <c r="FP2">
+        <v>4</v>
+      </c>
+      <c r="FQ2">
+        <v>4</v>
+      </c>
+      <c r="FR2">
+        <v>1</v>
+      </c>
+      <c r="FS2">
+        <v>2</v>
+      </c>
+      <c r="FT2">
+        <v>3</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>211</v>
+      </c>
+      <c r="FV2">
+        <v>2</v>
+      </c>
+      <c r="FW2">
+        <v>3</v>
+      </c>
+      <c r="FX2">
+        <v>4</v>
+      </c>
+      <c r="FY2">
+        <v>5</v>
+      </c>
+      <c r="FZ2">
+        <v>4</v>
+      </c>
+      <c r="GA2">
+        <v>4</v>
+      </c>
+      <c r="GB2">
+        <v>3</v>
+      </c>
+      <c r="GC2">
+        <v>2</v>
+      </c>
+      <c r="GD2">
+        <v>1</v>
+      </c>
+      <c r="GE2">
+        <v>3</v>
+      </c>
+      <c r="GF2">
+        <v>2</v>
+      </c>
+      <c r="GG2">
+        <v>2</v>
+      </c>
+      <c r="GH2">
+        <v>3</v>
+      </c>
+      <c r="GI2">
+        <v>4</v>
+      </c>
+      <c r="GJ2">
+        <v>1</v>
+      </c>
+      <c r="GK2">
+        <v>2</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>212</v>
+      </c>
+      <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>1</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -478,7 +478,7 @@
     <t>Art and Craft Studio</t>
   </si>
   <si>
-    <t>Café</t>
+    <t>Cafe</t>
   </si>
   <si>
     <t>Shop/providore</t>
@@ -619,10 +619,10 @@
     <t>Lucas</t>
   </si>
   <si>
-    <t>2A Lorca Ave, Magill 5072</t>
-  </si>
-  <si>
-    <t>ljlizu.su93@gmail.com</t>
+    <t>24 Lorne Ave, Magill 5072</t>
+  </si>
+  <si>
+    <t>lijia.su93@gmail.com</t>
   </si>
   <si>
     <t>0466 351 350</t>
@@ -634,7 +634,7 @@
     <t>AFL, Volunteer Magill, Adelaide Seniors Dancing Club</t>
   </si>
   <si>
-    <t>cats, dogs</t>
+    <t>Cats, dogs</t>
   </si>
   <si>
     <t>Convenient</t>
@@ -652,7 +652,7 @@
     <t>I want to try new things every day! Nobody can stop me!</t>
   </si>
   <si>
-    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you. haha.</t>
+    <t>Hi, I go to school by bus. I am two years old. I'd like to have free food from you haha.</t>
   </si>
   <si>
     <t>Westering North Adelaide is a great place to live in. I hope to move in as soon as possible.</t>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP2">
         <v>2</v>
@@ -1846,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="BR2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS2">
         <v>5</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU2">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE2">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="CN2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO2">
         <v>3</v>
@@ -1939,52 +1939,52 @@
         <v>4</v>
       </c>
       <c r="CW2">
+        <v>4</v>
+      </c>
+      <c r="CX2">
+        <v>3</v>
+      </c>
+      <c r="CY2">
+        <v>2</v>
+      </c>
+      <c r="CZ2">
+        <v>2</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>2</v>
+      </c>
+      <c r="DD2">
+        <v>2</v>
+      </c>
+      <c r="DE2">
+        <v>2</v>
+      </c>
+      <c r="DF2">
+        <v>2</v>
+      </c>
+      <c r="DG2">
+        <v>4</v>
+      </c>
+      <c r="DH2">
+        <v>4</v>
+      </c>
+      <c r="DI2">
+        <v>4</v>
+      </c>
+      <c r="DJ2">
         <v>5</v>
       </c>
-      <c r="CX2">
-        <v>3</v>
-      </c>
-      <c r="CY2">
-        <v>2</v>
-      </c>
-      <c r="CZ2">
-        <v>4</v>
-      </c>
-      <c r="DA2">
-        <v>1</v>
-      </c>
-      <c r="DB2">
-        <v>1</v>
-      </c>
-      <c r="DC2">
-        <v>2</v>
-      </c>
-      <c r="DD2">
-        <v>2</v>
-      </c>
-      <c r="DE2">
-        <v>3</v>
-      </c>
-      <c r="DF2">
-        <v>4</v>
-      </c>
-      <c r="DG2">
-        <v>4</v>
-      </c>
-      <c r="DH2">
-        <v>4</v>
-      </c>
-      <c r="DI2">
-        <v>5</v>
-      </c>
-      <c r="DJ2">
-        <v>1</v>
-      </c>
       <c r="DK2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DM2">
         <v>4</v>
@@ -2002,13 +2002,13 @@
         <v>3</v>
       </c>
       <c r="DR2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DS2">
         <v>4</v>
       </c>
       <c r="DT2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DU2">
         <v>4</v>
@@ -2023,19 +2023,19 @@
         <v>210</v>
       </c>
       <c r="DY2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DZ2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EA2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EB2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ED2">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>5</v>
       </c>
       <c r="EK2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EM2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EN2">
         <v>4</v>
@@ -2074,10 +2074,10 @@
         <v>5</v>
       </c>
       <c r="EP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EQ2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ER2">
         <v>3</v>
@@ -2089,46 +2089,46 @@
         <v>4</v>
       </c>
       <c r="EU2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="EV2">
         <v>4</v>
       </c>
       <c r="EW2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EX2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EY2">
         <v>5</v>
       </c>
       <c r="EZ2">
+        <v>4</v>
+      </c>
+      <c r="FA2">
+        <v>4</v>
+      </c>
+      <c r="FB2">
+        <v>4</v>
+      </c>
+      <c r="FC2">
+        <v>3</v>
+      </c>
+      <c r="FD2">
         <v>5</v>
       </c>
-      <c r="FA2">
-        <v>4</v>
-      </c>
-      <c r="FB2">
+      <c r="FE2">
         <v>5</v>
       </c>
-      <c r="FC2">
-        <v>4</v>
-      </c>
-      <c r="FD2">
-        <v>2</v>
-      </c>
-      <c r="FE2">
-        <v>3</v>
-      </c>
       <c r="FF2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="FG2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FH2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FI2">
         <v>3</v>
@@ -2149,16 +2149,16 @@
         <v>3</v>
       </c>
       <c r="FO2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FP2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FQ2">
         <v>4</v>
       </c>
       <c r="FR2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FS2">
         <v>2</v>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="FW2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FX2">
         <v>4</v>
@@ -2194,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="GD2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GE2">
         <v>3</v>
@@ -2212,10 +2212,10 @@
         <v>4</v>
       </c>
       <c r="GJ2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="GL2" t="s">
         <v>212</v>
